--- a/biology/Zoologie/Heliconius_burneyi/Heliconius_burneyi.xlsx
+++ b/biology/Zoologie/Heliconius_burneyi/Heliconius_burneyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius burneyi est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,12 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon aux ailes allongées et arrondies de couleur marron et orange. Les ailes antérieures ont une partie basale orange ou rouge suivant les sous-espèces et le reste marron orné de quelques taches jaune pâle. Les ailes postérieures sont marron avec des lignes orange ou rouge allant de la base jusqu'à la marge chez certaines sous-espèces.
 Le revers est semblable, marron avec les mêmes taches jaune pâle mais une coloration orange limitée à quelques traits à la base des antérieures et de la base à marge des postérieures. d'une envergure d'environ 78 mm.
-Chenilles
-La chenille est de couleur marron et noir avec une tête noire et des cornes jaunes[1].
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heliconius burneyi 
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Astrophea et Distephana (Passifloraceae)[1]. 
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur marron et noir avec une tête noire et des cornes jaunes.
 </t>
         </is>
       </c>
@@ -575,14 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Guyane, Guyana, au Surinam, Venezuela, Colombie, Bolivie, au Brésil et au Pérou[2].
-Biotope
-Il réside dans la forêt tropicale amazonienne[1].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius burneyi 
 </t>
         </is>
       </c>
@@ -608,19 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce Heliconius burneyi a été décrite par l'entomologiste allemand Jacob Hübner en 1831[2] sous le nom initial de Migonitis burneyi.
-Synonymie
-Migonitis burneyi Hübner, [1831] protonyme
-Heliconius burneyi var jeanneae Boullet &amp; Le Cerf, 1909
-Heliconius burneyi f oberthüri Boullet &amp; Le Cerf, 1909 (preocc. Riffarth, 1903)
-Heliconius burneyi f roseni Krüger, 1928
-Noms vernaculaires
-Il se nomme Burney's Longwing en anglais[3].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Astrophea et Distephana (Passifloraceae). 
 </t>
         </is>
       </c>
@@ -646,12 +661,193 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Guyane, Guyana, au Surinam, Venezuela, Colombie, Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heliconius burneyi a été décrite par l'entomologiste allemand Jacob Hübner en 1831 sous le nom initial de Migonitis burneyi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Migonitis burneyi Hübner,  protonyme
+Heliconius burneyi var jeanneae Boullet &amp; Le Cerf, 1909
+Heliconius burneyi f oberthüri Boullet &amp; Le Cerf, 1909 (preocc. Riffarth, 1903)
+Heliconius burneyi f roseni Krüger, 1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Burney's Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_burneyi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-espèces[2]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-espèces
 Heliconius burneyi burneyi ; présent en Guyane.
 Heliconius burneyi ada Neustetter, 1925 ; présent au Brésil
 Heliconius burneyi anjae Neukirchen, 1995 ; présent au Brésil
@@ -666,7 +862,7 @@
 Heliconius burneyi koenigi Neukirchen, 1995 ; présent au Pérou
 Heliconius burneyi lindigii C. &amp; R. Felder, 1865 ; présent en Colombie.
 Heliconius burneyi skinneri Brown &amp; Fernández, 1985 ; présent au Venezuela.
-Il existe un hybride Heliconius burneyi serpentis ( Heliconius burneyi burneyix Heliconius burneyi catharinae)[4]
+Il existe un hybride Heliconius burneyi serpentis ( Heliconius burneyi burneyix Heliconius burneyi catharinae)
 </t>
         </is>
       </c>
